--- a/WebAPICore/Excel.xlsx
+++ b/WebAPICore/Excel.xlsx
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f0cea0bf-75f5-4b13-bdf2-1e1b041a8eb5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a7ab8a7d-ffb4-4c38-a881-e54ba56e8f81}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -492,7 +492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34390cfc-f065-428f-8514-50449c99a478}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9f431a03-360f-4485-9f9f-0781d5cfe15a}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
